--- a/Test/TestExcelFiles/BadIndentationForTable/BadIndentationForTable.xlsx
+++ b/Test/TestExcelFiles/BadIndentationForTable/BadIndentationForTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\BadIndentationForTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6C8F56EF-0B0C-447B-8ECE-A5A2ED00BA0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288629D-6290-48BC-97E9-2DA038706144}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BadIndentationForTable" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>When</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>This table properties start in column E, but they should start in column D</t>
+  </si>
+  <si>
+    <t>Then</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,110 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -533,9 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389079D-C9FD-4AFA-AFB3-2F9AFFAD165C}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -576,10 +677,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,12 +690,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,29 +703,29 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"Assert"</formula>
+      <formula>"Then"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"When"</formula>
